--- a/data_analysis/hmx/hmxfit.xlsx
+++ b/data_analysis/hmx/hmxfit.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/altoidnerd/Desktop/python-pwscf/data_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/altoidnerd/Desktop/python-pwscf/data_analysis/hmx/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17520" yWindow="1680" windowWidth="11280" windowHeight="15240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="16780" yWindow="1620" windowWidth="11280" windowHeight="15240" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="31">
   <si>
     <t>a</t>
   </si>
@@ -61,6 +62,66 @@
   </si>
   <si>
     <t>hmx equitorial</t>
+  </si>
+  <si>
+    <t>eta0</t>
+  </si>
+  <si>
+    <t>cq_coef0</t>
+  </si>
+  <si>
+    <t>cq_coef1</t>
+  </si>
+  <si>
+    <t>expt moross</t>
+  </si>
+  <si>
+    <t>cq'</t>
+  </si>
+  <si>
+    <t>cell vol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a </t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>hmx - axial</t>
+  </si>
+  <si>
+    <t>hmx - equatorial</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>fqdelta</t>
+  </si>
+  <si>
+    <t>fq-</t>
+  </si>
+  <si>
+    <t>fq+</t>
+  </si>
+  <si>
+    <t>cq0 (MHz)</t>
+  </si>
+  <si>
+    <t>fq+'</t>
+  </si>
+  <si>
+    <t>fqdelta'</t>
+  </si>
+  <si>
+    <t>fq-'</t>
   </si>
 </sst>
 </file>
@@ -388,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1738,7 +1799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2897,4 +2958,925 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:S26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>792934</v>
+      </c>
+      <c r="B6">
+        <v>123</v>
+      </c>
+      <c r="C6">
+        <v>6.2180999999999997</v>
+      </c>
+      <c r="D6">
+        <v>0.51102000000000003</v>
+      </c>
+      <c r="E6">
+        <f>3*C6/4*(1+D6/3)</f>
+        <v>5.4579683654999993</v>
+      </c>
+      <c r="F6">
+        <f>3*C6/4*(1-D6/3)</f>
+        <v>3.8691816344999994</v>
+      </c>
+      <c r="G6">
+        <f>E6-F6</f>
+        <v>1.5887867309999999</v>
+      </c>
+      <c r="H6">
+        <v>0.99389828844399997</v>
+      </c>
+      <c r="K6">
+        <f>H6*C6</f>
+        <v>6.180158947373636</v>
+      </c>
+      <c r="L6">
+        <f>E6*H6</f>
+        <v>5.424665416851945</v>
+      </c>
+      <c r="M6">
+        <f>F6*H6</f>
+        <v>3.8455730042085077</v>
+      </c>
+      <c r="N6">
+        <f>G6*H6</f>
+        <v>1.5790924126434376</v>
+      </c>
+      <c r="O6">
+        <v>306.81040000000002</v>
+      </c>
+      <c r="P6">
+        <v>14.664</v>
+      </c>
+      <c r="Q6">
+        <v>5.74</v>
+      </c>
+      <c r="R6">
+        <v>3.9249999999999998</v>
+      </c>
+      <c r="S6">
+        <v>111.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>792933</v>
+      </c>
+      <c r="B7">
+        <v>173</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E26" si="0">3*C7/4*(1+D7/3)</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F26" si="1">3*C7/4*(1-D7/3)</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G26" si="2">E7-F7</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K17" si="3">H7*C7</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:L26" si="4">E7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M26" si="5">F7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:N26" si="6">G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>313.0016</v>
+      </c>
+      <c r="P7">
+        <v>14.705</v>
+      </c>
+      <c r="Q7">
+        <v>5.7869999999999999</v>
+      </c>
+      <c r="R7">
+        <v>3.9670000000000001</v>
+      </c>
+      <c r="S7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>792932</v>
+      </c>
+      <c r="B8">
+        <v>198</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>314.887</v>
+      </c>
+      <c r="P8">
+        <v>14.72</v>
+      </c>
+      <c r="Q8">
+        <v>5.8010000000000002</v>
+      </c>
+      <c r="R8">
+        <v>3.9820000000000002</v>
+      </c>
+      <c r="S8">
+        <v>112.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>792931</v>
+      </c>
+      <c r="B9">
+        <v>223</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>316.72899999999998</v>
+      </c>
+      <c r="P9">
+        <v>14.73</v>
+      </c>
+      <c r="Q9">
+        <v>5.8120000000000003</v>
+      </c>
+      <c r="R9">
+        <v>3.9969999999999999</v>
+      </c>
+      <c r="S9">
+        <v>112.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>792929</v>
+      </c>
+      <c r="B10">
+        <v>248</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>319.22449999999998</v>
+      </c>
+      <c r="P10">
+        <v>14.747</v>
+      </c>
+      <c r="Q10">
+        <v>5.83</v>
+      </c>
+      <c r="R10">
+        <v>4.0140000000000002</v>
+      </c>
+      <c r="S10">
+        <v>112.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>792927</v>
+      </c>
+      <c r="B11">
+        <v>273</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>320.60235999999998</v>
+      </c>
+      <c r="P11">
+        <v>14.762</v>
+      </c>
+      <c r="Q11">
+        <v>5.84</v>
+      </c>
+      <c r="R11">
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="S11">
+        <v>112.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>792928</v>
+      </c>
+      <c r="B12">
+        <v>293</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>792930</v>
+      </c>
+      <c r="B13">
+        <v>303</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18" t="s">
+        <v>19</v>
+      </c>
+      <c r="S18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>792934</v>
+      </c>
+      <c r="B19">
+        <v>123</v>
+      </c>
+      <c r="C19">
+        <v>6.0769500000000001</v>
+      </c>
+      <c r="D19">
+        <v>0.47349999999999998</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>5.2770714562499998</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>3.8383535437500003</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>1.4387179124999996</v>
+      </c>
+      <c r="H19">
+        <v>0.99480323399699999</v>
+      </c>
+      <c r="K19">
+        <f>H19*C19</f>
+        <v>6.0453695128380689</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>5.249647750710758</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>3.8184065185463458</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="6"/>
+        <v>1.4312412321644123</v>
+      </c>
+      <c r="O19">
+        <v>306.81040000000002</v>
+      </c>
+      <c r="P19">
+        <v>14.664</v>
+      </c>
+      <c r="Q19">
+        <v>5.74</v>
+      </c>
+      <c r="R19">
+        <v>3.9249999999999998</v>
+      </c>
+      <c r="S19">
+        <v>111.77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>792933</v>
+      </c>
+      <c r="B20">
+        <v>173</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ref="K20:K26" si="7">H20*C20</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>313.0016</v>
+      </c>
+      <c r="P20">
+        <v>14.705</v>
+      </c>
+      <c r="Q20">
+        <v>5.7869999999999999</v>
+      </c>
+      <c r="R20">
+        <v>3.9670000000000001</v>
+      </c>
+      <c r="S20">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>792932</v>
+      </c>
+      <c r="B21">
+        <v>198</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>314.887</v>
+      </c>
+      <c r="P21">
+        <v>14.72</v>
+      </c>
+      <c r="Q21">
+        <v>5.8010000000000002</v>
+      </c>
+      <c r="R21">
+        <v>3.9820000000000002</v>
+      </c>
+      <c r="S21">
+        <v>112.17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>792931</v>
+      </c>
+      <c r="B22">
+        <v>223</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>316.72899999999998</v>
+      </c>
+      <c r="P22">
+        <v>14.73</v>
+      </c>
+      <c r="Q22">
+        <v>5.8120000000000003</v>
+      </c>
+      <c r="R22">
+        <v>3.9969999999999999</v>
+      </c>
+      <c r="S22">
+        <v>112.24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>792929</v>
+      </c>
+      <c r="B23">
+        <v>248</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>319.22449999999998</v>
+      </c>
+      <c r="P23">
+        <v>14.747</v>
+      </c>
+      <c r="Q23">
+        <v>5.83</v>
+      </c>
+      <c r="R23">
+        <v>4.0140000000000002</v>
+      </c>
+      <c r="S23">
+        <v>112.33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>792927</v>
+      </c>
+      <c r="B24">
+        <v>273</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>320.60235999999998</v>
+      </c>
+      <c r="P24">
+        <v>14.762</v>
+      </c>
+      <c r="Q24">
+        <v>5.84</v>
+      </c>
+      <c r="R24">
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="S24">
+        <v>112.52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>792928</v>
+      </c>
+      <c r="B25">
+        <v>293</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>792930</v>
+      </c>
+      <c r="B26">
+        <v>303</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data_analysis/hmx/hmxfit.xlsx
+++ b/data_analysis/hmx/hmxfit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16780" yWindow="1620" windowWidth="11280" windowHeight="15240" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="15060" yWindow="1620" windowWidth="13000" windowHeight="15240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="29">
   <si>
     <t>a</t>
   </si>
@@ -68,12 +68,6 @@
   </si>
   <si>
     <t>cq_coef0</t>
-  </si>
-  <si>
-    <t>cq_coef1</t>
-  </si>
-  <si>
-    <t>expt moross</t>
   </si>
   <si>
     <t>cq'</t>
@@ -449,7 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
       <selection activeCell="A45" sqref="A45:A52"/>
     </sheetView>
   </sheetViews>
@@ -2962,44 +2956,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:S26"/>
+  <dimension ref="A3:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" activeCellId="1" sqref="B6:B13 I6:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.1640625" customWidth="1"/>
     <col min="2" max="2" width="6.1640625" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -3008,19 +3003,19 @@
         <v>13</v>
       </c>
       <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5" t="s">
         <v>15</v>
-      </c>
-      <c r="L5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" t="s">
-        <v>29</v>
       </c>
       <c r="O5" t="s">
         <v>16</v>
@@ -3031,14 +3026,8 @@
       <c r="Q5" t="s">
         <v>18</v>
       </c>
-      <c r="R5" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>792934</v>
       </c>
@@ -3066,391 +3055,388 @@
       <c r="H6">
         <v>0.99389828844399997</v>
       </c>
-      <c r="K6">
+      <c r="I6">
         <f>H6*C6</f>
         <v>6.180158947373636</v>
       </c>
-      <c r="L6">
+      <c r="J6">
         <f>E6*H6</f>
         <v>5.424665416851945</v>
       </c>
-      <c r="M6">
+      <c r="K6">
         <f>F6*H6</f>
         <v>3.8455730042085077</v>
       </c>
-      <c r="N6">
+      <c r="L6">
         <f>G6*H6</f>
         <v>1.5790924126434376</v>
       </c>
-      <c r="O6">
-        <v>306.81040000000002</v>
-      </c>
-      <c r="P6">
-        <v>14.664</v>
-      </c>
-      <c r="Q6">
-        <v>5.74</v>
-      </c>
-      <c r="R6">
-        <v>3.9249999999999998</v>
-      </c>
-      <c r="S6">
-        <v>111.77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M6">
+        <v>505.970386932</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>792933</v>
       </c>
       <c r="B7">
         <v>173</v>
       </c>
+      <c r="C7">
+        <v>6.2140000000000004</v>
+      </c>
+      <c r="D7">
+        <v>0.50990999999999997</v>
+      </c>
       <c r="E7">
         <f t="shared" ref="E7:E26" si="0">3*C7/4*(1+D7/3)</f>
-        <v>0</v>
+        <v>5.4526451850000006</v>
       </c>
       <c r="F7">
         <f t="shared" ref="F7:F26" si="1">3*C7/4*(1-D7/3)</f>
-        <v>0</v>
+        <v>3.8683548150000009</v>
       </c>
       <c r="G7">
         <f t="shared" ref="G7:G26" si="2">E7-F7</f>
-        <v>0</v>
+        <v>1.5842903699999997</v>
+      </c>
+      <c r="H7">
+        <v>0.99135430527799995</v>
+      </c>
+      <c r="I7">
+        <f>H7*C7</f>
+        <v>6.160275652997492</v>
+      </c>
+      <c r="J7">
+        <f>E7*H7</f>
+        <v>5.4055032793031073</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:K17" si="3">H7*C7</f>
-        <v>0</v>
+        <f>F7*H7</f>
+        <v>3.8349102001931321</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7:L26" si="4">E7*H7</f>
-        <v>0</v>
+        <f>G7*H7</f>
+        <v>1.5705930791099751</v>
       </c>
       <c r="M7">
-        <f t="shared" ref="M7:M26" si="5">F7*H7</f>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f t="shared" ref="N7:N26" si="6">G7*H7</f>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>313.0016</v>
-      </c>
-      <c r="P7">
-        <v>14.705</v>
-      </c>
-      <c r="Q7">
-        <v>5.7869999999999999</v>
-      </c>
-      <c r="R7">
-        <v>3.9670000000000001</v>
-      </c>
-      <c r="S7">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+        <v>508.91406326200001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>792932</v>
       </c>
       <c r="B8">
         <v>198</v>
       </c>
+      <c r="C8">
+        <v>6.2222</v>
+      </c>
+      <c r="D8">
+        <v>0.50815999999999995</v>
+      </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.4571182879999993</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.8761817119999997</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5809365759999996</v>
+      </c>
+      <c r="H8">
+        <v>0.99229306309099996</v>
+      </c>
+      <c r="I8">
+        <f>H8*C8</f>
+        <v>6.1742458971648198</v>
+      </c>
+      <c r="J8">
+        <f>E8*H8</f>
+        <v>5.4150606216494328</v>
       </c>
       <c r="K8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>F8*H8</f>
+        <v>3.8463082240977959</v>
       </c>
       <c r="L8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>G8*H8</f>
+        <v>1.5687523975516371</v>
       </c>
       <c r="M8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>314.887</v>
-      </c>
-      <c r="P8">
-        <v>14.72</v>
-      </c>
-      <c r="Q8">
-        <v>5.8010000000000002</v>
-      </c>
-      <c r="R8">
-        <v>3.9820000000000002</v>
-      </c>
-      <c r="S8">
-        <v>112.17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+        <v>509.92607816399999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>792931</v>
       </c>
       <c r="B9">
         <v>223</v>
       </c>
+      <c r="C9">
+        <v>6.2255000000000003</v>
+      </c>
+      <c r="D9">
+        <v>0.50761000000000001</v>
+      </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.45915651375</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.8790934862499999</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5800630275000001</v>
+      </c>
+      <c r="H9">
+        <v>0.99015753454900002</v>
+      </c>
+      <c r="I9">
+        <f>H9*C9</f>
+        <v>6.1642257313347999</v>
+      </c>
+      <c r="J9">
+        <f>E9*H9</f>
+        <v>5.4054249543718145</v>
       </c>
       <c r="K9">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>F9*H9</f>
+        <v>3.8409136426303854</v>
       </c>
       <c r="L9">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>G9*H9</f>
+        <v>1.5645113117414289</v>
       </c>
       <c r="M9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>316.72899999999998</v>
-      </c>
-      <c r="P9">
-        <v>14.73</v>
-      </c>
-      <c r="Q9">
-        <v>5.8120000000000003</v>
-      </c>
-      <c r="R9">
-        <v>3.9969999999999999</v>
-      </c>
-      <c r="S9">
-        <v>112.24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+        <v>512.44695414600005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>792929</v>
       </c>
       <c r="B10">
         <v>248</v>
       </c>
+      <c r="C10">
+        <v>6.2173999999999996</v>
+      </c>
+      <c r="D10">
+        <v>0.50855499999999998</v>
+      </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.4535224642500006</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.8725775357500001</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5809449285000006</v>
+      </c>
+      <c r="H10">
+        <v>0.98951364590199997</v>
+      </c>
+      <c r="I10">
+        <f>H10*C10</f>
+        <v>6.1522021420310944</v>
+      </c>
+      <c r="J10">
+        <f>E10*H10</f>
+        <v>5.3963348966084776</v>
       </c>
       <c r="K10">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>F10*H10</f>
+        <v>3.8319683164381653</v>
       </c>
       <c r="L10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>G10*H10</f>
+        <v>1.5643665801703122</v>
       </c>
       <c r="M10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>319.22449999999998</v>
-      </c>
-      <c r="P10">
-        <v>14.747</v>
-      </c>
-      <c r="Q10">
-        <v>5.83</v>
-      </c>
-      <c r="R10">
-        <v>4.0140000000000002</v>
-      </c>
-      <c r="S10">
-        <v>112.33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+        <v>513.53494436300002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>792927</v>
       </c>
       <c r="B11">
         <v>273</v>
       </c>
+      <c r="C11">
+        <v>6.2005999999999997</v>
+      </c>
+      <c r="D11">
+        <v>0.52707000000000004</v>
+      </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.4674875604999986</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.8334124394999995</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.6340751209999991</v>
+      </c>
+      <c r="H11">
+        <v>0.98995248132500002</v>
+      </c>
+      <c r="I11">
+        <f>H11*C11</f>
+        <v>6.1382993557037944</v>
+      </c>
+      <c r="J11">
+        <f>E11*H11</f>
+        <v>5.4125528771305449</v>
       </c>
       <c r="K11">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>F11*H11</f>
+        <v>3.7948961564251462</v>
       </c>
       <c r="L11">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>G11*H11</f>
+        <v>1.6176567207053987</v>
       </c>
       <c r="M11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>320.60235999999998</v>
-      </c>
-      <c r="P11">
-        <v>14.762</v>
-      </c>
-      <c r="Q11">
-        <v>5.84</v>
-      </c>
-      <c r="R11">
-        <v>4.0250000000000004</v>
-      </c>
-      <c r="S11">
-        <v>112.52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+        <v>514.20239333500001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>792928</v>
       </c>
       <c r="B12">
         <v>293</v>
       </c>
+      <c r="C12">
+        <v>6.2161</v>
+      </c>
+      <c r="D12">
+        <v>0.52749000000000001</v>
+      </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.4818076472499992</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.8423423527499998</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.6394652944999994</v>
+      </c>
+      <c r="H12">
+        <v>0.98914768381100004</v>
+      </c>
+      <c r="I12">
+        <f>H12*C12</f>
+        <v>6.1486409173375574</v>
+      </c>
+      <c r="J12">
+        <f>E12*H12</f>
+        <v>5.4223173373747642</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>F12*H12</f>
+        <v>3.800644038631571</v>
       </c>
       <c r="L12">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>G12*H12</f>
+        <v>1.6216732987431934</v>
       </c>
       <c r="M12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+        <v>516.67547582700001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>792930</v>
       </c>
       <c r="B13">
         <v>303</v>
       </c>
+      <c r="C13">
+        <v>6.2245499999999998</v>
+      </c>
+      <c r="D13">
+        <v>0.50827</v>
+      </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.4593505071249995</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.8774744928749993</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5818760142500001</v>
+      </c>
+      <c r="H13">
+        <v>0.98515932024200004</v>
+      </c>
+      <c r="I13">
+        <f>H13*C13</f>
+        <v>6.1321734468123408</v>
+      </c>
+      <c r="J13">
+        <f>E13*H13</f>
+        <v>5.378330034562083</v>
       </c>
       <c r="K13">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>F13*H13</f>
+        <v>3.8199301356564281</v>
       </c>
       <c r="L13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>G13*H13</f>
+        <v>1.5583998989056544</v>
       </c>
       <c r="M13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+        <v>517.45015017900005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H18" t="s">
         <v>12</v>
@@ -3459,19 +3445,19 @@
         <v>13</v>
       </c>
       <c r="J18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="s">
         <v>14</v>
       </c>
-      <c r="K18" t="s">
+      <c r="N18" t="s">
         <v>15</v>
-      </c>
-      <c r="L18" t="s">
-        <v>28</v>
-      </c>
-      <c r="M18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" t="s">
-        <v>29</v>
       </c>
       <c r="O18" t="s">
         <v>16</v>
@@ -3482,14 +3468,8 @@
       <c r="Q18" t="s">
         <v>18</v>
       </c>
-      <c r="R18" t="s">
-        <v>19</v>
-      </c>
-      <c r="S18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>792934</v>
       </c>
@@ -3517,363 +3497,360 @@
       <c r="H19">
         <v>0.99480323399699999</v>
       </c>
-      <c r="K19">
+      <c r="I19">
         <f>H19*C19</f>
         <v>6.0453695128380689</v>
       </c>
+      <c r="J19">
+        <f>E19*H19</f>
+        <v>5.249647750710758</v>
+      </c>
+      <c r="K19">
+        <f>F19*H19</f>
+        <v>3.8184065185463458</v>
+      </c>
       <c r="L19">
-        <f t="shared" si="4"/>
-        <v>5.249647750710758</v>
+        <f>G19*H19</f>
+        <v>1.4312412321644123</v>
       </c>
       <c r="M19">
-        <f t="shared" si="5"/>
-        <v>3.8184065185463458</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="6"/>
-        <v>1.4312412321644123</v>
-      </c>
-      <c r="O19">
-        <v>306.81040000000002</v>
-      </c>
-      <c r="P19">
-        <v>14.664</v>
-      </c>
-      <c r="Q19">
-        <v>5.74</v>
-      </c>
-      <c r="R19">
-        <v>3.9249999999999998</v>
-      </c>
-      <c r="S19">
-        <v>111.77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+        <v>505.970386932</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>792933</v>
       </c>
       <c r="B20">
         <v>173</v>
       </c>
+      <c r="C20">
+        <v>6.08</v>
+      </c>
+      <c r="D20">
+        <v>0.47250500000000001</v>
+      </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.2782076000000009</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.8417924000000006</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.4364152000000003</v>
+      </c>
+      <c r="H20">
+        <v>0.99185793493999996</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ref="I20:I26" si="3">H20*C20</f>
+        <v>6.0304962444351995</v>
+      </c>
+      <c r="J20">
+        <f>E20*H20</f>
+        <v>5.235232090320614</v>
       </c>
       <c r="K20">
-        <f t="shared" ref="K20:K26" si="7">H20*C20</f>
-        <v>0</v>
+        <f>F20*H20</f>
+        <v>3.810512276332187</v>
       </c>
       <c r="L20">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>G20*H20</f>
+        <v>1.4247198139884274</v>
       </c>
       <c r="M20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>313.0016</v>
-      </c>
-      <c r="P20">
-        <v>14.705</v>
-      </c>
-      <c r="Q20">
-        <v>5.7869999999999999</v>
-      </c>
-      <c r="R20">
-        <v>3.9670000000000001</v>
-      </c>
-      <c r="S20">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+        <v>508.91406326200001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>792932</v>
       </c>
       <c r="B21">
         <v>198</v>
       </c>
+      <c r="C21">
+        <v>6.0835999999999997</v>
+      </c>
+      <c r="D21">
+        <v>0.47316999999999998</v>
+      </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.2823442529999989</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.8430557469999997</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.4392885059999991</v>
+      </c>
+      <c r="H21">
+        <v>0.99188985597900003</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>6.0342611278338447</v>
+      </c>
+      <c r="J21">
+        <f>E21*H21</f>
+        <v>5.2395036803396673</v>
       </c>
       <c r="K21">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>F21*H21</f>
+        <v>3.811888011411098</v>
       </c>
       <c r="L21">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>G21*H21</f>
+        <v>1.4276156689285693</v>
       </c>
       <c r="M21">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>314.887</v>
-      </c>
-      <c r="P21">
-        <v>14.72</v>
-      </c>
-      <c r="Q21">
-        <v>5.8010000000000002</v>
-      </c>
-      <c r="R21">
-        <v>3.9820000000000002</v>
-      </c>
-      <c r="S21">
-        <v>112.17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+        <v>509.92607816399999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>792931</v>
       </c>
       <c r="B22">
         <v>223</v>
       </c>
+      <c r="C22">
+        <v>6.0949999999999998</v>
+      </c>
+      <c r="D22">
+        <v>0.47165000000000001</v>
+      </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.2899266875000004</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.8525733125000001</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.4373533750000003</v>
+      </c>
+      <c r="H22">
+        <v>0.98994842088099999</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>6.0337356252696948</v>
+      </c>
+      <c r="J22">
+        <f>E22*H22</f>
+        <v>5.2367545708668848</v>
       </c>
       <c r="K22">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>F22*H22</f>
+        <v>3.8138488670376582</v>
       </c>
       <c r="L22">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>G22*H22</f>
+        <v>1.4229057038292261</v>
       </c>
       <c r="M22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>316.72899999999998</v>
-      </c>
-      <c r="P22">
-        <v>14.73</v>
-      </c>
-      <c r="Q22">
-        <v>5.8120000000000003</v>
-      </c>
-      <c r="R22">
-        <v>3.9969999999999999</v>
-      </c>
-      <c r="S22">
-        <v>112.24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+        <v>512.44695414600005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>792929</v>
       </c>
       <c r="B23">
         <v>248</v>
       </c>
+      <c r="C23">
+        <v>6.10745</v>
+      </c>
+      <c r="D23">
+        <v>0.47136</v>
+      </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.3002894079999994</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.8608855919999998</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.4394038159999996</v>
+      </c>
+      <c r="H23">
+        <v>0.99005770376400004</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>6.0467279228534423</v>
+      </c>
+      <c r="J23">
+        <f>E23*H23</f>
+        <v>5.2475923605691301</v>
       </c>
       <c r="K23">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>F23*H23</f>
+        <v>3.8224995237110315</v>
       </c>
       <c r="L23">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>G23*H23</f>
+        <v>1.4250928368580988</v>
       </c>
       <c r="M23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>319.22449999999998</v>
-      </c>
-      <c r="P23">
-        <v>14.747</v>
-      </c>
-      <c r="Q23">
-        <v>5.83</v>
-      </c>
-      <c r="R23">
-        <v>4.0140000000000002</v>
-      </c>
-      <c r="S23">
-        <v>112.33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+        <v>513.53494436300002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>792927</v>
       </c>
       <c r="B24">
         <v>273</v>
       </c>
+      <c r="C24">
+        <v>6.0103999999999997</v>
+      </c>
+      <c r="D24">
+        <v>0.49245499999999998</v>
+      </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.247762883</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.7678371169999996</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.4799257660000005</v>
+      </c>
+      <c r="H24">
+        <v>0.98833652796299998</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>5.9402978676688152</v>
+      </c>
+      <c r="J24">
+        <f>E24*H24</f>
+        <v>5.1865557473573229</v>
       </c>
       <c r="K24">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>F24*H24</f>
+        <v>3.7238910541458994</v>
       </c>
       <c r="L24">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>G24*H24</f>
+        <v>1.4626646932114236</v>
       </c>
       <c r="M24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>320.60235999999998</v>
-      </c>
-      <c r="P24">
-        <v>14.762</v>
-      </c>
-      <c r="Q24">
-        <v>5.84</v>
-      </c>
-      <c r="R24">
-        <v>4.0250000000000004</v>
-      </c>
-      <c r="S24">
-        <v>112.52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+        <v>514.20239333500001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>792928</v>
       </c>
       <c r="B25">
         <v>293</v>
       </c>
+      <c r="C25">
+        <v>6.0052000000000003</v>
+      </c>
+      <c r="D25">
+        <v>0.49195499999999998</v>
+      </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.2424720415000001</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.7653279584999995</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.4771440830000007</v>
+      </c>
+      <c r="H25">
+        <v>0.98708763511999997</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>5.9276586664226238</v>
+      </c>
+      <c r="J25">
+        <f>E25*H25</f>
+        <v>5.1747793296269533</v>
       </c>
       <c r="K25">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>F25*H25</f>
+        <v>3.716708670006982</v>
       </c>
       <c r="L25">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>G25*H25</f>
+        <v>1.4580706596199715</v>
       </c>
       <c r="M25">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+        <v>516.67547582700001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>792930</v>
       </c>
       <c r="B26">
         <v>303</v>
       </c>
+      <c r="C26">
+        <v>6.1177999999999999</v>
+      </c>
+      <c r="D26">
+        <v>0.46689000000000003</v>
+      </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.3024349104999997</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.8742650894999997</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.428169821</v>
+      </c>
+      <c r="H26">
+        <v>0.98466065277799997</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>6.0239569415652481</v>
+      </c>
+      <c r="J26">
+        <f>E26*H26</f>
+        <v>5.2210990202857852</v>
       </c>
       <c r="K26">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>F26*H26</f>
+        <v>3.814836392062086</v>
       </c>
       <c r="L26">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>G26*H26</f>
+        <v>1.4062626282236994</v>
       </c>
       <c r="M26">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>517.45015017900005</v>
       </c>
     </row>
   </sheetData>
